--- a/Assets/Resources/ChatDB/인트로 엑셀.xlsx
+++ b/Assets/Resources/ChatDB/인트로 엑셀.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Develop\Github\Escape\Assets\Resources\ChatDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE86969-34FA-4724-A7B6-CB541969B601}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BF2102-68AA-493A-9DCE-EDBE7D92EE77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{2731BA88-018F-4632-B6EA-CC1A383C1D17}"/>
+    <workbookView xWindow="4065" yWindow="4065" windowWidth="28800" windowHeight="15435" xr2:uid="{2731BA88-018F-4632-B6EA-CC1A383C1D17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="184">
   <si>
     <t>Who</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,445 +135,515 @@
     <t>이 악의가 느껴지는 기분나쁜 편지... 어제의 그 번호의 문자가 떠올랐다.</t>
   </si>
   <si>
+    <t>생각하던 중, 누군가 문을 두드리는 소리가 들렸다.</t>
+  </si>
+  <si>
+    <t>계십니까?!</t>
+  </si>
+  <si>
+    <t>누구세요?</t>
+  </si>
+  <si>
+    <t>택배입니다!!</t>
+  </si>
+  <si>
+    <t>문을 열자마자 커다란 박스가 내 시선을 사로잡았다.</t>
+  </si>
+  <si>
+    <t>(이건 대체...)</t>
+  </si>
+  <si>
+    <t>ㅁㅁㅁ님 본인 맞으시죠? 여기 서명해주시면 됩니다.</t>
+  </si>
+  <si>
+    <t>아 예 여기요?</t>
+  </si>
+  <si>
+    <t>퍽</t>
+  </si>
+  <si>
+    <t>#A3 - 깨어남</t>
+  </si>
+  <si>
+    <t>낯선 천장, 낯선 방...</t>
+  </si>
+  <si>
+    <t>(여긴 어디지?)</t>
+  </si>
+  <si>
+    <t>나는 모르는 방의 침대에 누워있었고, 옆에는 한 여성이 나를 바라보고 있었다.</t>
+  </si>
+  <si>
+    <t>여자</t>
+  </si>
+  <si>
+    <t>오빠! 이제야 일어났구나? 갑자기 쓰러져서 놀랐잖아..... 몸은 좀 괜찮아?</t>
+  </si>
+  <si>
+    <t>여긴...어디죠?</t>
+  </si>
+  <si>
+    <t>어디냐지...? 집이잖아..무슨소리하는거야?</t>
+  </si>
+  <si>
+    <t>집이요..? 그런데 실례지만....당신은 누구죠?</t>
+  </si>
+  <si>
+    <t>저를 아시나요?</t>
+  </si>
+  <si>
+    <t>충격</t>
+  </si>
+  <si>
+    <t>나를 몰라...? 나를.... 못알아보겠어...?</t>
+  </si>
+  <si>
+    <t>나 연이잖아!</t>
+  </si>
+  <si>
+    <t>뭐, 기억 안나면 어쩔수 없지...</t>
+  </si>
+  <si>
+    <t>다시 생각해보니 신장이나 목소리도 비슷했던거 같기도....</t>
+  </si>
+  <si>
+    <t>그렇다면 저 여자가 택배기사로 위장해서 날 여기로 납치한건가?</t>
+  </si>
+  <si>
+    <t>만약에 그렇다면 무엇때문에?</t>
+  </si>
+  <si>
+    <t>나는....</t>
+  </si>
+  <si>
+    <t>선택지 A</t>
+  </si>
+  <si>
+    <t>선택지 B</t>
+  </si>
+  <si>
+    <t>기억상실인 척하며 여자의 장단에 맞춰준다. &gt; #D로 간다.</t>
+  </si>
+  <si>
+    <t>당신! 누군지 몰라도 날 납치하고 거짓말까지 하다니, 속셈이 뭐야!</t>
+  </si>
+  <si>
+    <t>....아직 기억이 남아있나 보네?</t>
+  </si>
+  <si>
+    <t>뭐...뭐라 말이라도 해봐! 이런짓을 하고도 용서받을수 있을거 같아?</t>
+  </si>
+  <si>
+    <t>(말없이 웃는다.)</t>
+  </si>
+  <si>
+    <t>여자는 내가 반응할 틈도 없이 자연스럽게 나에게 다가왔다.</t>
+  </si>
+  <si>
+    <t>무..무슨짓을 하려는거야?</t>
+  </si>
+  <si>
+    <t>미안 오빠.</t>
+  </si>
+  <si>
+    <t>#B2 - 두번째 깨어남</t>
+  </si>
+  <si>
+    <t>나는 튕기듯 잠에서 깨어났다.</t>
+  </si>
+  <si>
+    <t>등이 축축해질 정도로 끔찍한 악몽이었다.</t>
+  </si>
+  <si>
+    <t>엄마</t>
+  </si>
+  <si>
+    <t>일어났니?</t>
+  </si>
+  <si>
+    <t>으... 엄마, 끔찍한 꿈을 꿨어요.</t>
+  </si>
+  <si>
+    <t>무슨꿈이었는데?</t>
+  </si>
+  <si>
+    <t>한 미친 여자가 저를 기절시키고 자기네 집으로 끌고갔어요...</t>
+  </si>
+  <si>
+    <t>제가 여자를 비난하니까.. 끔찍한 짓을 당하는 꿈이었어요..</t>
+  </si>
+  <si>
+    <t>꿈속의 미친 여자가 바로 눈 앞에 있었다.</t>
+  </si>
+  <si>
+    <t>끔찍했던 기억은 악몽이 아닌 당장의 현실이었다.</t>
+  </si>
+  <si>
+    <t>오빠, 괜찮아? 얼굴색이 창백한데?</t>
+  </si>
+  <si>
+    <t>비굴하더라도 그녀에게 목숨만은 살려달라고 애원한다. &gt; #C로 간다.</t>
+  </si>
+  <si>
+    <t>#C</t>
+  </si>
+  <si>
+    <t>#C - 쳐맞는 나</t>
+  </si>
+  <si>
+    <t>나는 벌써 2번이나 기절했다.</t>
+  </si>
+  <si>
+    <t>살려만 주시면... 뭐든지 할게요!</t>
+  </si>
+  <si>
+    <t>이상하다? 아직도 기억이 남아있나보네...</t>
+  </si>
+  <si>
+    <t>분명 이렇게 하면 기억이 사라진다 했었는데.</t>
+  </si>
+  <si>
+    <t>뭔가 잘못된 낌새를 느꼇다.</t>
+  </si>
+  <si>
+    <t>다시해야겠다. 오빠, 아파도 조금만 참아.</t>
+  </si>
+  <si>
+    <t>커헉!!</t>
+  </si>
+  <si>
+    <t>살..려줘..</t>
+  </si>
+  <si>
+    <t>여기도 아닌가?</t>
+  </si>
+  <si>
+    <t>그렇게 내가 다시 눈을 뜰일은 없었다.</t>
+  </si>
+  <si>
+    <t>#D</t>
+  </si>
+  <si>
+    <t>#D1 - 연기하는 나</t>
+  </si>
+  <si>
+    <t>일단.. 여자의 말대로 기억상실인척 연기하며 정보를 모아보자</t>
+  </si>
+  <si>
+    <t>전혀. 기억이. 안나요.</t>
+  </si>
+  <si>
+    <t>국어책 읽기 수준의 연기였지만, 놀랍게도 통했다.</t>
+  </si>
+  <si>
+    <t>#D2 - 밤</t>
+  </si>
+  <si>
+    <t>쿨...</t>
+  </si>
+  <si>
+    <t>첫째, 날 납치한 범인에 대한 정보이다.</t>
+  </si>
+  <si>
+    <t>그녀의 이름은 연이, 나이는.. 모르겠다. 오빠라 부르는걸 보면 연하같기도 하고...</t>
+  </si>
+  <si>
+    <t>암튼... 이런걸 말하려는게 아니었는데.</t>
+  </si>
+  <si>
+    <t>그녀는 나의 여자친구를 연기한다.</t>
+  </si>
+  <si>
+    <t>세간에서 말하는 스토커란 부류인거겠지..</t>
+  </si>
+  <si>
+    <t>행동거지나 말투만 보면 사랑스러운 연인처럼 보이지만</t>
+  </si>
+  <si>
+    <t>이전의 내가 받았던 문자와 괴상한 편지를 생각하고 그녀를 볼때면, 등골이 오싹할정도로 소름이 끼친다.</t>
+  </si>
+  <si>
+    <t>그녀를 함부로 자극하거나 도망치려는걸 들키기라도 하면 어떤짓을 당할지.... 상상조차 하고싶지 않다.</t>
+  </si>
+  <si>
+    <t>둘째, 이 집에 대한 정보이다.</t>
+  </si>
+  <si>
+    <t>내부 구조로 봤을때 이 집은 일반적인 단층 전원주택인거같다.</t>
+  </si>
+  <si>
+    <t>하지만 창문으로는 방범용 창살이 죄다 달려있어서 나갈수 없게 되어있고,</t>
+  </si>
+  <si>
+    <t>현관에는 보통집에는 절대 있을리 없는 안쪽에서 문을 잠그는 자물쇠가 여러개 달려있다.</t>
+  </si>
+  <si>
+    <t>즉, 이 집은 밀실이고 역시 난 그녀에 의해 납치 감금된 상태인거같다.</t>
+  </si>
+  <si>
+    <t>연이도 밀실이여서 도망치지 못한다는 사실을 알고있기에 내가 조금이라도 자유롭게 행동할수 있는거겠지.</t>
+  </si>
+  <si>
+    <t>세번째는....도움이 되는 정보인지는 모르겠다.</t>
+  </si>
+  <si>
+    <t>뭐... 이렇게 절망적인 상황이고, 육체적으로도 정신적으로도 힘들지만</t>
+  </si>
+  <si>
+    <t>연이가 자고있는 지금이 탈출할수있는 절호의 찬스라는 것이다....</t>
+  </si>
+  <si>
+    <t>그녀에게 들키지 않고 여기서 도망갈수있을까?</t>
+  </si>
+  <si>
+    <t>GAME START</t>
+  </si>
+  <si>
+    <t>System</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>택배기사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모르는 번호로 한통의 문자가 왔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[사랑해♡]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[나 지금 오빠 생각하고 있다?]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모르는 사람에게 온 문자인것만 해도 당황스러운데 섬뜩한 내용의 문자까지…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음날 일요일 정오,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주말의 여유를 즐기며 깨어난 나는 현관앞에 편지가 놓여있는걸 발견했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(편지...? 편지를 받은 기억은 없는데...)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불길한 느낌은 언제나 틀리지 않았다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 후배의 수줍은 고백부터 불알 친구의 몰래카메라까지 여러 가능성을 생각해봤지만 도대체 이 문자의 소재를 알수가 없었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(연이? 처음들어보는 이름인데.. 이 여자의 이름인가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분명 나는 집에서 택배를 받다가 머리를 맞고 쓰러진거로 기억하는데....)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(아, 기억났다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저 핑크색 머리카락..!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모자하고 마스크를 쓰고 있어서 못알아봤었는데, 그때의 택배기사 머리색과 똑같았다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">그래..? 정말 무서운 꿈이었네... </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무슨일이 있어도 내가 오빠를 지켜줄게!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 걱정마, 여긴 안전하니까.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄마?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(응...? 지금 오빠라고...)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!!!!!!!!!!!!!!!!!!!!!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더 이상 맞거나 기절하면, 정말 돌이킬수 없을거 같다는 생각에 나는 손발이 닳도록 빌었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제발 살려만 주세요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸은 엉망이 되어 식은땀이 멈출줄 모르고, 손도 벌벌 떨리고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이런...! 잘못 @#$린거같아!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나래이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAME OVER (너무 많이 맞은 ENDING)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난 그녀를 알지 못하지만, 그녀는 나에대해서 아주 잘 알고 오랬동안 관찰해온거같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 이름은 연이! 오빠의 여자친구야!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>괜찮아!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기억나지 않는다 해도 내가 하나부터 열까지 천천히 알려줄게!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그녀는 정말로 기뻐하는 표정이었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 낮시간 동안 알아낸건 크게 세가지이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제야 잠들었구나..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>(경찰에 신고해야 하나?)</t>
-  </si>
-  <si>
-    <t>생각하던 중, 누군가 문을 두드리는 소리가 들렸다.</t>
-  </si>
-  <si>
-    <t>계십니까?!</t>
-  </si>
-  <si>
-    <t>누구세요?</t>
-  </si>
-  <si>
-    <t>택배입니다!!</t>
-  </si>
-  <si>
-    <t>문을 열자마자 커다란 박스가 내 시선을 사로잡았다.</t>
-  </si>
-  <si>
-    <t>(이건 대체...)</t>
-  </si>
-  <si>
-    <t>ㅁㅁㅁ님 본인 맞으시죠? 여기 서명해주시면 됩니다.</t>
-  </si>
-  <si>
-    <t>아 예 여기요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>띠링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>띠링띠링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현뜯는소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartBGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StopBGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문 두드림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딱히 의미도 없이 유X브 추천영상만 주구장창 보고있던 어느 토요일 낮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 바로 그 번호를 차단했고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별 생각없이 평소처럼 지냈다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 박스에 서명하기위해 허리를 숙였다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>퍽</t>
-  </si>
-  <si>
-    <t>#A3 - 깨어남</t>
-  </si>
-  <si>
-    <t>낯선 천장, 낯선 방...</t>
-  </si>
-  <si>
-    <t>(여긴 어디지?)</t>
-  </si>
-  <si>
-    <t>나는 모르는 방의 침대에 누워있었고, 옆에는 한 여성이 나를 바라보고 있었다.</t>
-  </si>
-  <si>
-    <t>여자</t>
-  </si>
-  <si>
-    <t>오빠! 이제야 일어났구나? 갑자기 쓰러져서 놀랐잖아..... 몸은 좀 괜찮아?</t>
-  </si>
-  <si>
-    <t>여긴...어디죠?</t>
-  </si>
-  <si>
-    <t>어디냐지...? 집이잖아..무슨소리하는거야?</t>
-  </si>
-  <si>
-    <t>집이요..? 그런데 실례지만....당신은 누구죠?</t>
-  </si>
-  <si>
-    <t>저를 아시나요?</t>
-  </si>
-  <si>
-    <t>충격</t>
-  </si>
-  <si>
-    <t>나를 몰라...? 나를.... 못알아보겠어...?</t>
-  </si>
-  <si>
-    <t>나 연이잖아!</t>
-  </si>
-  <si>
-    <t>뭐, 기억 안나면 어쩔수 없지...</t>
-  </si>
-  <si>
-    <t>다시 생각해보니 신장이나 목소리도 비슷했던거 같기도....</t>
-  </si>
-  <si>
-    <t>그렇다면 저 여자가 택배기사로 위장해서 날 여기로 납치한건가?</t>
-  </si>
-  <si>
-    <t>만약에 그렇다면 무엇때문에?</t>
-  </si>
-  <si>
-    <t>나는....</t>
-  </si>
-  <si>
-    <t>선택지 A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연이가 잠들때까지 그녀의 경계심을 풀고 계속해서 정보를 수집했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>...................................</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#B1 - 추궁하는 나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartChat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MakeSelection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여자를 추궁한다./기억상실인 척하며 여자의 장단에 맞춰준다.|Go|B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>여자를 추궁한다. &gt; #B로 간다.</t>
-  </si>
-  <si>
-    <t>선택지 B</t>
-  </si>
-  <si>
-    <t>기억상실인 척하며 여자의 장단에 맞춰준다. &gt; #D로 간다.</t>
-  </si>
-  <si>
-    <t>#B</t>
-  </si>
-  <si>
-    <t>#B1 - 추궁하는 나</t>
-  </si>
-  <si>
-    <t>당신! 누군지 몰라도 날 납치하고 거짓말까지 하다니, 속셈이 뭐야!</t>
-  </si>
-  <si>
-    <t>....아직 기억이 남아있나 보네?</t>
-  </si>
-  <si>
-    <t>뭐...뭐라 말이라도 해봐! 이런짓을 하고도 용서받을수 있을거 같아?</t>
-  </si>
-  <si>
-    <t>(말없이 웃는다.)</t>
-  </si>
-  <si>
-    <t>여자는 내가 반응할 틈도 없이 자연스럽게 나에게 다가왔다.</t>
-  </si>
-  <si>
-    <t>무..무슨짓을 하려는거야?</t>
-  </si>
-  <si>
-    <t>미안 오빠.</t>
-  </si>
-  <si>
-    <t>#B2 - 두번째 깨어남</t>
-  </si>
-  <si>
-    <t>나는 튕기듯 잠에서 깨어났다.</t>
-  </si>
-  <si>
-    <t>등이 축축해질 정도로 끔찍한 악몽이었다.</t>
-  </si>
-  <si>
-    <t>엄마</t>
-  </si>
-  <si>
-    <t>일어났니?</t>
-  </si>
-  <si>
-    <t>으... 엄마, 끔찍한 꿈을 꿨어요.</t>
-  </si>
-  <si>
-    <t>무슨꿈이었는데?</t>
-  </si>
-  <si>
-    <t>한 미친 여자가 저를 기절시키고 자기네 집으로 끌고갔어요...</t>
-  </si>
-  <si>
-    <t>제가 여자를 비난하니까.. 끔찍한 짓을 당하는 꿈이었어요..</t>
-  </si>
-  <si>
-    <t>꿈속의 미친 여자가 바로 눈 앞에 있었다.</t>
-  </si>
-  <si>
-    <t>끔찍했던 기억은 악몽이 아닌 당장의 현실이었다.</t>
-  </si>
-  <si>
-    <t>오빠, 괜찮아? 얼굴색이 창백한데?</t>
-  </si>
-  <si>
-    <t>비굴하더라도 그녀에게 목숨만은 살려달라고 애원한다. &gt; #C로 간다.</t>
-  </si>
-  <si>
-    <t>#C</t>
-  </si>
-  <si>
-    <t>#C - 쳐맞는 나</t>
-  </si>
-  <si>
-    <t>나는 벌써 2번이나 기절했다.</t>
-  </si>
-  <si>
-    <t>살려만 주시면... 뭐든지 할게요!</t>
-  </si>
-  <si>
-    <t>이상하다? 아직도 기억이 남아있나보네...</t>
-  </si>
-  <si>
-    <t>분명 이렇게 하면 기억이 사라진다 했었는데.</t>
-  </si>
-  <si>
-    <t>뭔가 잘못된 낌새를 느꼇다.</t>
-  </si>
-  <si>
-    <t>다시해야겠다. 오빠, 아파도 조금만 참아.</t>
-  </si>
-  <si>
-    <t>커헉!!</t>
-  </si>
-  <si>
-    <t>살..려줘..</t>
-  </si>
-  <si>
-    <t>여기도 아닌가?</t>
-  </si>
-  <si>
-    <t>.....</t>
-  </si>
-  <si>
-    <t>그렇게 내가 다시 눈을 뜰일은 없었다.</t>
-  </si>
-  <si>
-    <t>#D</t>
-  </si>
-  <si>
-    <t>#D1 - 연기하는 나</t>
-  </si>
-  <si>
-    <t>일단.. 여자의 말대로 기억상실인척 연기하며 정보를 모아보자</t>
-  </si>
-  <si>
-    <t>전혀. 기억이. 안나요.</t>
-  </si>
-  <si>
-    <t>국어책 읽기 수준의 연기였지만, 놀랍게도 통했다.</t>
-  </si>
-  <si>
-    <t>그녀는 조금 기뻐하듯이 말했다.</t>
-  </si>
-  <si>
-    <t>조금 쉬면 기억날지도 몰라, 기억나지 않는다 해도 내가 하나부터 열까지 천천히 알려줄게!</t>
-  </si>
-  <si>
-    <t>내 이름은 연이! 오빠의 여자친구야!</t>
-  </si>
-  <si>
-    <t>#D2 - 밤</t>
-  </si>
-  <si>
-    <t>쿨...</t>
-  </si>
-  <si>
-    <t>드디어 잠든건가.</t>
-  </si>
-  <si>
-    <t>내가 낮시간 동안 알아낸건 크게 세가지이다.</t>
-  </si>
-  <si>
-    <t>첫째, 날 납치한 범인에 대한 정보이다.</t>
-  </si>
-  <si>
-    <t>그녀의 이름은 연이, 나이는.. 모르겠다. 오빠라 부르는걸 보면 연하같기도 하고...</t>
-  </si>
-  <si>
-    <t>암튼... 이런걸 말하려는게 아니었는데.</t>
-  </si>
-  <si>
-    <t>그녀는 나의 여자친구를 연기한다.</t>
-  </si>
-  <si>
-    <t>세간에서 말하는 스토커란 부류인거겠지..</t>
-  </si>
-  <si>
-    <t>행동거지나 말투만 보면 사랑스러운 연인처럼 보이지만</t>
-  </si>
-  <si>
-    <t>이전의 내가 받았던 문자와 괴상한 편지를 생각하고 그녀를 볼때면, 등골이 오싹할정도로 소름이 끼친다.</t>
-  </si>
-  <si>
-    <t>그녀를 함부로 자극하거나 도망치려는걸 들키기라도 하면 어떤짓을 당할지.... 상상조차 하고싶지 않다.</t>
-  </si>
-  <si>
-    <t>둘째, 이 집에 대한 정보이다.</t>
-  </si>
-  <si>
-    <t>내부 구조로 봤을때 이 집은 일반적인 단층 전원주택인거같다.</t>
-  </si>
-  <si>
-    <t>하지만 창문으로는 방범용 창살이 죄다 달려있어서 나갈수 없게 되어있고,</t>
-  </si>
-  <si>
-    <t>현관에는 보통집에는 절대 있을리 없는 안쪽에서 문을 잠그는 자물쇠가 여러개 달려있다.</t>
-  </si>
-  <si>
-    <t>즉, 이 집은 밀실이고 역시 난 그녀에 의해 납치 감금된 상태인거같다.</t>
-  </si>
-  <si>
-    <t>연이도 밀실이여서 도망치지 못한다는 사실을 알고있기에 내가 조금이라도 자유롭게 행동할수 있는거겠지.</t>
-  </si>
-  <si>
-    <t>세번째는....도움이 되는 정보인지는 모르겠다.</t>
-  </si>
-  <si>
-    <t>뭐... 이렇게 절망적인 상황이고, 육체적으로도 정신적으로도 힘들지만</t>
-  </si>
-  <si>
-    <t>연이가 자고있는 지금이 탈출할수있는 절호의 찬스라는 것이다....</t>
-  </si>
-  <si>
-    <t>그녀에게 들키지 않고 여기서 도망갈수있을까?</t>
-  </si>
-  <si>
-    <t>GAME START</t>
-  </si>
-  <si>
-    <t>System</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맞는소리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>택배기사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>독백</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>딱히 의미도 없이 유튜브 추천영상만 주구장창 보고있던 어느 토요일 낮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모르는 번호로 한통의 문자가 왔다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[사랑해♡]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[나 지금 오빠 생각하고 있다?]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모르는 사람에게 온 문자인것만 해도 당황스러운데 섬뜩한 내용의 문자까지…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나는 바로 그 번호를 차단했다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다음날 일요일 정오,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주말의 여유를 즐기며 깨어난 나는 현관앞에 편지가 놓여있는걸 발견했다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(편지...? 편지를 받은 기억은 없는데...)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불길한 느낌은 언제나 틀리지 않았다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나는 박스에 서명하기위해 허리를 숙였고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학교 후배의 수줍은 고백부터 불알 친구의 몰래카메라까지 여러 가능성을 생각해봤지만 도대체 이 문자의 소재를 알수가 없었다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>???</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(연이? 처음들어보는 이름인데.. 이 여자의 이름인가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분명 나는 집에서 택배를 받다가 머리를 맞고 쓰러진거로 기억하는데....)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(아, 기억났다!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저 핑크색 머리카락..!)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모자하고 마스크를 쓰고 있어서 못알아봤었는데, 그때의 택배기사 머리색과 똑같았다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">그래..? 정말 무서운 꿈이었네... </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무슨일이 있어도 내가 오빠를 지켜줄게!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하지만 걱정마, 여긴 안전하니까.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엄마</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엄마?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(응...? 지금 오빠라고...)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>!!!!!!!!!!!!!!!!!!!!!!!!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>더 이상 맞거나 기절하면, 정말 돌이킬수 없을거 같다는 생각에 나는 손발이 닳도록 빌었다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제발 살려만 주세요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몸은 엉망이 되어 식은땀이 멈출줄 모르고, 손도 벌벌 떨리고 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이런...! 잘못 @#$린거같아!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나래이션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GAME OVER (너무 많이 맞은 ENDING)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>난 그녀를 알지 못하지만, 그녀는 나에대해서 아주 잘 알고 오랬동안 관찰해온거같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intro/B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intro/A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -581,7 +651,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -614,6 +684,13 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="CookieRun Regular"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
       <name val="CookieRun Regular"/>
       <family val="3"/>
       <charset val="129"/>
@@ -680,7 +757,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -711,6 +788,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -719,20 +799,6 @@
     <dxf>
       <font>
         <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="CookieRun Regular"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -778,6 +844,20 @@
     <dxf>
       <font>
         <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="CookieRun Regular"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -848,16 +928,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{073B6533-BBA9-4CD6-B162-DD4CAC54EC7C}" name="표1" displayName="표1" ref="A1:C151" tableType="xml" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" connectionId="1">
-  <autoFilter ref="A1:C151" xr:uid="{7462D0E0-573B-46CD-A3FD-1D0F9E65B25D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{073B6533-BBA9-4CD6-B162-DD4CAC54EC7C}" name="표1" displayName="표1" ref="A1:C170" tableType="xml" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" connectionId="1">
+  <autoFilter ref="A1:C170" xr:uid="{7462D0E0-573B-46CD-A3FD-1D0F9E65B25D}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{BF1A6F3B-4621-4A14-B87C-8F6B9B39FF15}" uniqueName="Who" name="Who" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{BF1A6F3B-4621-4A14-B87C-8F6B9B39FF15}" uniqueName="Who" name="Who" dataDxfId="2">
       <xmlColumnPr mapId="1" xpath="/Chat/I1/Field/@Who" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{3D6358B7-A2B4-4260-8D40-8B804658FC01}" uniqueName="State" name="State" dataDxfId="3">
+    <tableColumn id="2" xr3:uid="{3D6358B7-A2B4-4260-8D40-8B804658FC01}" uniqueName="State" name="State" dataDxfId="1">
       <xmlColumnPr mapId="1" xpath="/Chat/I1/Field/@State" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{77366A65-E625-4BFD-805C-559574481DEC}" uniqueName="Message" name="Message" dataDxfId="2">
+    <tableColumn id="3" xr3:uid="{77366A65-E625-4BFD-805C-559574481DEC}" uniqueName="Message" name="Message" dataDxfId="0">
       <xmlColumnPr mapId="1" xpath="/Chat/I1/Field/@Message" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -1128,16 +1208,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFD151"/>
+  <dimension ref="A1:XFC170"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="19.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="27.75" style="9" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="9" customWidth="1"/>
+    <col min="2" max="2" width="28.5" style="9" customWidth="1"/>
     <col min="3" max="3" width="129.375" style="9" customWidth="1"/>
     <col min="4" max="16383" width="9" style="9" hidden="1"/>
     <col min="16384" max="16384" width="31.25" style="9" hidden="1" customWidth="1"/>
@@ -1179,47 +1259,49 @@
     </row>
     <row r="5" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="3" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="3" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4"/>
+        <v>122</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="C7" s="3" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="3" t="s">
-        <v>13</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="5" t="s">
-        <v>147</v>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
@@ -1227,170 +1309,194 @@
         <v>11</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="4" t="s">
+    <row r="12" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>16</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4" t="s">
-        <v>17</v>
+      <c r="A14" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="4" t="s">
-        <v>18</v>
+      <c r="C15" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4" t="s">
-        <v>19</v>
+      <c r="A16" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4" t="s">
-        <v>21</v>
+      <c r="A18" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="4"/>
+      <c r="A19" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4" t="s">
-        <v>23</v>
+      <c r="A20" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4" t="s">
-        <v>141</v>
+        <v>122</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="4" t="s">
-        <v>132</v>
-      </c>
+      <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="A24" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="25" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="3" t="s">
-        <v>11</v>
+      <c r="A25" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
-        <v>142</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4" t="s">
-        <v>143</v>
+        <v>122</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
-        <v>144</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4" t="s">
-        <v>26</v>
+        <v>122</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="4"/>
+      <c r="A30" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
@@ -1399,49 +1505,51 @@
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="4" t="s">
-        <v>29</v>
+      <c r="A32" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4" t="s">
-        <v>30</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4" t="s">
-        <v>31</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="4"/>
+      <c r="A34" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4" t="s">
-        <v>33</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="A36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
@@ -1449,16 +1557,16 @@
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4" t="s">
-        <v>35</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="4" t="s">
-        <v>148</v>
+      <c r="A38" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
@@ -1467,86 +1575,82 @@
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="4" t="s">
-        <v>148</v>
+      <c r="A40" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="4" t="s">
-        <v>134</v>
+      <c r="A43" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" s="4"/>
+      <c r="A44" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>166</v>
+      </c>
       <c r="C44" s="4" t="s">
-        <v>42</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="3" t="s">
-        <v>11</v>
+      <c r="A45" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4" t="s">
-        <v>146</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="3" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4" t="s">
-        <v>133</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="48" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
@@ -1555,45 +1659,45 @@
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="A50" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C50" s="4"/>
     </row>
     <row r="51" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B51" s="4"/>
+        <v>122</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="C51" s="4" t="s">
-        <v>49</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4" t="s">
-        <v>9</v>
+      <c r="A52" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="B53" s="4"/>
       <c r="C53" s="4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
@@ -1602,39 +1706,43 @@
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="4"/>
+      <c r="A55" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="A56" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="4"/>
       <c r="C56" s="4" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="4"/>
+      <c r="A57" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="4"/>
+      <c r="A58" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="B58" s="4"/>
       <c r="C58" s="4" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
@@ -1643,123 +1751,131 @@
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4" t="s">
-        <v>149</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="4"/>
+      <c r="A60" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="B60" s="4"/>
       <c r="C60" s="4" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B61" s="4"/>
+      <c r="A61" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="C61" s="4" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4" t="s">
-        <v>152</v>
-      </c>
+      <c r="A62" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
     </row>
     <row r="63" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="4" t="s">
-        <v>153</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="4"/>
+      <c r="A64" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="B64" s="4"/>
       <c r="C64" s="4" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="4" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="4"/>
+      <c r="A66" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="B66" s="4"/>
       <c r="C66" s="4" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="8"/>
-      <c r="C67" s="7" t="s">
-        <v>61</v>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7" t="s">
-        <v>63</v>
+      <c r="A68" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B69" s="8"/>
-      <c r="C69" s="7" t="s">
-        <v>65</v>
+      <c r="A69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="71" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
+      <c r="A71" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="72" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
       <c r="C73" s="4" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
@@ -1768,428 +1884,418 @@
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="4" t="s">
-        <v>70</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4" t="s">
-        <v>71</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="4" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="4" t="s">
-        <v>74</v>
+        <v>139</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="4" t="s">
-        <v>132</v>
-      </c>
+      <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
+      <c r="A80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="81" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4" t="s">
-        <v>77</v>
+      <c r="A82" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" s="10"/>
+      <c r="C82" s="7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4" t="s">
-        <v>79</v>
+      <c r="A83" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4" t="s">
-        <v>80</v>
+      <c r="A84" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B84" s="10"/>
+      <c r="C84" s="7" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4" t="s">
-        <v>81</v>
+      <c r="A85" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B85" s="10"/>
+      <c r="C85" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4" t="s">
-        <v>82</v>
-      </c>
+      <c r="A86" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
     </row>
     <row r="87" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4" t="s">
-        <v>83</v>
-      </c>
+      <c r="A87" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
     </row>
     <row r="88" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4" t="s">
-        <v>158</v>
+        <v>9</v>
       </c>
       <c r="B88" s="4"/>
       <c r="C88" s="4" t="s">
-        <v>155</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B89" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="C89" s="4" t="s">
-        <v>157</v>
+        <v>65</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="4"/>
+      <c r="A90" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4" t="s">
-        <v>156</v>
+        <v>66</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B91" s="4"/>
       <c r="C91" s="4" t="s">
-        <v>160</v>
+        <v>67</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="4"/>
+      <c r="A92" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="B92" s="4"/>
       <c r="C92" s="4" t="s">
-        <v>161</v>
+        <v>68</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4" t="s">
-        <v>135</v>
+        <v>9</v>
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="4"/>
+      <c r="A94" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="B94" s="4"/>
       <c r="C94" s="4" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4" t="s">
-        <v>4</v>
+        <v>122</v>
       </c>
       <c r="B95" s="4"/>
       <c r="C95" s="4" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="7" t="s">
+      <c r="A96" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+    </row>
+    <row r="97" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A99" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B96" s="8"/>
-      <c r="C96" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B98" s="8"/>
-      <c r="C98" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-    </row>
-    <row r="100" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="101" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="4" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="B101" s="4"/>
       <c r="C101" s="4" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="4"/>
+      <c r="A102" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="B102" s="4"/>
       <c r="C102" s="4" t="s">
-        <v>164</v>
+        <v>78</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="4" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="B104" s="4"/>
       <c r="C104" s="4" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="4"/>
+      <c r="A105" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="B105" s="4"/>
       <c r="C105" s="4" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="4"/>
+      <c r="A107" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="B107" s="4"/>
       <c r="C107" s="4" t="s">
-        <v>93</v>
+        <v>146</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4" t="s">
-        <v>4</v>
+        <v>124</v>
       </c>
       <c r="B109" s="4"/>
       <c r="C109" s="4" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A110" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
       <c r="C110" s="4" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B111" s="4"/>
       <c r="C111" s="4" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B112" s="4"/>
-      <c r="C112" s="4" t="s">
-        <v>165</v>
+      <c r="A112" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" s="8"/>
+      <c r="C112" s="7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A113" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>43</v>
+      <c r="A113" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c r="C113" s="7" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B114" s="4"/>
-      <c r="C114" s="4" t="s">
-        <v>97</v>
+      <c r="A114" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B114" s="8"/>
+      <c r="C114" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A115" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B115" s="4"/>
-      <c r="C115" s="4" t="s">
-        <v>98</v>
-      </c>
+      <c r="A115" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
     </row>
     <row r="116" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="A116" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
     </row>
     <row r="117" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B117" s="4"/>
       <c r="C117" s="4" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A118" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4" t="s">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A119" s="4" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="B119" s="4"/>
       <c r="C119" s="4" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A120" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
+      <c r="A120" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120" s="4"/>
+      <c r="C120" s="4" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="121" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
+      <c r="A121" s="4"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="122" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B122" s="4"/>
       <c r="C122" s="4" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A123" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
@@ -2198,108 +2304,127 @@
       </c>
       <c r="B124" s="4"/>
       <c r="C124" s="4" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A125" s="4"/>
+      <c r="A125" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="B125" s="4"/>
       <c r="C125" s="4" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A126" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B126" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="C126" s="4" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A127" s="4"/>
+      <c r="A127" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="B127" s="4"/>
       <c r="C127" s="4" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A128" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
+      <c r="A128" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B128" s="4"/>
+      <c r="C128" s="4" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="129" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A129" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B129" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="C129" s="4" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A130" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B130" s="4"/>
       <c r="C130" s="4" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A131" s="4"/>
+      <c r="A131" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="B131" s="4"/>
       <c r="C131" s="4" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A132" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B132" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="C132" s="4" t="s">
-        <v>113</v>
+        <v>42</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A133" s="4"/>
+      <c r="A133" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="B133" s="4"/>
       <c r="C133" s="4" t="s">
-        <v>114</v>
+        <v>175</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A134" s="4"/>
+      <c r="A134" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="B134" s="4"/>
       <c r="C134" s="4" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4" t="s">
-        <v>11</v>
+        <v>152</v>
       </c>
       <c r="B135" s="4"/>
       <c r="C135" s="4" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B136" s="4"/>
-      <c r="C136" s="4" t="s">
-        <v>168</v>
-      </c>
+      <c r="A136" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
     </row>
     <row r="137" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A137" s="4"/>
-      <c r="B137" s="4"/>
-      <c r="C137" s="4" t="s">
-        <v>117</v>
-      </c>
+      <c r="A137" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
     </row>
     <row r="138" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A138" s="4" t="s">
@@ -2307,14 +2432,16 @@
       </c>
       <c r="B138" s="4"/>
       <c r="C138" s="4" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A139" s="4"/>
+      <c r="A139" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="B139" s="4"/>
       <c r="C139" s="4" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
@@ -2323,78 +2450,80 @@
       </c>
       <c r="B140" s="4"/>
       <c r="C140" s="4" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A141" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B141" s="4"/>
       <c r="C141" s="4" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A143" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A144" s="4"/>
+      <c r="A144" s="4" t="s">
+        <v>124</v>
+      </c>
       <c r="B144" s="4"/>
       <c r="C144" s="4" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A145" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B145" s="4"/>
-      <c r="C145" s="4" t="s">
-        <v>125</v>
-      </c>
+      <c r="A145" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
     </row>
     <row r="146" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A146" s="4"/>
+      <c r="A146" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="B146" s="4"/>
       <c r="C146" s="4" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A147" s="4" t="s">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="B147" s="4"/>
       <c r="C147" s="4" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A148" s="4"/>
+      <c r="A148" s="4" t="s">
+        <v>124</v>
+      </c>
       <c r="B148" s="4"/>
       <c r="C148" s="4" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
@@ -2403,16 +2532,168 @@
       </c>
       <c r="B150" s="4"/>
       <c r="C150" s="4" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A151" s="4" t="s">
-        <v>166</v>
-      </c>
+      <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4" t="s">
-        <v>131</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A152" s="4"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A153" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B153" s="4"/>
+      <c r="C153" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B154" s="4"/>
+      <c r="C154" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A155" s="4"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A156" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B156" s="4"/>
+      <c r="C156" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A157" s="4"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A158" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B158" s="4"/>
+      <c r="C158" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A159" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B159" s="4"/>
+      <c r="C159" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A160" s="4"/>
+      <c r="B160" s="4"/>
+      <c r="C160" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A161" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B161" s="4"/>
+      <c r="C161" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A162" s="4"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A163" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B163" s="4"/>
+      <c r="C163" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A164" s="4"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A165" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B165" s="4"/>
+      <c r="C165" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A166" s="4"/>
+      <c r="B166" s="4"/>
+      <c r="C166" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A167" s="4"/>
+      <c r="B167" s="4"/>
+      <c r="C167" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A168" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B168" s="4"/>
+      <c r="C168" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A169" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B169" s="4"/>
+      <c r="C169" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A170" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B170" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C170" s="9" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
